--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53250059-8A0E-4904-BC2B-99B89CCD4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0E91A-287A-46B7-B928-05C1E082289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="12" windowWidth="23004" windowHeight="12948" xr2:uid="{D145FE44-40B6-4444-BADB-F1CF3DA6E66F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>supplier_kode</t>
   </si>
@@ -45,22 +45,13 @@
     <t>supplier_alamat</t>
   </si>
   <si>
-    <t>BTR</t>
-  </si>
-  <si>
-    <t>Hanun</t>
-  </si>
-  <si>
-    <t>Bantur</t>
-  </si>
-  <si>
-    <t>Wagir</t>
-  </si>
-  <si>
-    <t>Pras</t>
-  </si>
-  <si>
-    <t>WGR</t>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Singosari</t>
   </si>
 </sst>
 </file>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDAD678-F986-487E-B914-FF5DC98350C8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,17 +447,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
